--- a/stock/data/SK이노베이션.xlsx
+++ b/stock/data/SK이노베이션.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4122"/>
+  <dimension ref="A1:G4155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -95251,10 +95251,769 @@
         <v>116000</v>
       </c>
       <c r="F4122" t="n">
-        <v>439750</v>
+        <v>444662</v>
       </c>
       <c r="G4122" t="n">
         <v>-2.027027027027027</v>
+      </c>
+    </row>
+    <row r="4123">
+      <c r="A4123" s="2" t="n">
+        <v>45383</v>
+      </c>
+      <c r="B4123" t="n">
+        <v>116300</v>
+      </c>
+      <c r="C4123" t="n">
+        <v>118500</v>
+      </c>
+      <c r="D4123" t="n">
+        <v>115200</v>
+      </c>
+      <c r="E4123" t="n">
+        <v>117400</v>
+      </c>
+      <c r="F4123" t="n">
+        <v>260572</v>
+      </c>
+      <c r="G4123" t="n">
+        <v>1.206896551724138</v>
+      </c>
+    </row>
+    <row r="4124">
+      <c r="A4124" s="2" t="n">
+        <v>45384</v>
+      </c>
+      <c r="B4124" t="n">
+        <v>117500</v>
+      </c>
+      <c r="C4124" t="n">
+        <v>122500</v>
+      </c>
+      <c r="D4124" t="n">
+        <v>117200</v>
+      </c>
+      <c r="E4124" t="n">
+        <v>121800</v>
+      </c>
+      <c r="F4124" t="n">
+        <v>512554</v>
+      </c>
+      <c r="G4124" t="n">
+        <v>3.747870528109029</v>
+      </c>
+    </row>
+    <row r="4125">
+      <c r="A4125" s="2" t="n">
+        <v>45385</v>
+      </c>
+      <c r="B4125" t="n">
+        <v>121400</v>
+      </c>
+      <c r="C4125" t="n">
+        <v>124500</v>
+      </c>
+      <c r="D4125" t="n">
+        <v>116800</v>
+      </c>
+      <c r="E4125" t="n">
+        <v>117400</v>
+      </c>
+      <c r="F4125" t="n">
+        <v>798593</v>
+      </c>
+      <c r="G4125" t="n">
+        <v>-3.61247947454844</v>
+      </c>
+    </row>
+    <row r="4126">
+      <c r="A4126" s="2" t="n">
+        <v>45386</v>
+      </c>
+      <c r="B4126" t="n">
+        <v>118500</v>
+      </c>
+      <c r="C4126" t="n">
+        <v>120200</v>
+      </c>
+      <c r="D4126" t="n">
+        <v>117500</v>
+      </c>
+      <c r="E4126" t="n">
+        <v>119900</v>
+      </c>
+      <c r="F4126" t="n">
+        <v>347444</v>
+      </c>
+      <c r="G4126" t="n">
+        <v>2.129471890971039</v>
+      </c>
+    </row>
+    <row r="4127">
+      <c r="A4127" s="2" t="n">
+        <v>45387</v>
+      </c>
+      <c r="B4127" t="n">
+        <v>118800</v>
+      </c>
+      <c r="C4127" t="n">
+        <v>119900</v>
+      </c>
+      <c r="D4127" t="n">
+        <v>116800</v>
+      </c>
+      <c r="E4127" t="n">
+        <v>118100</v>
+      </c>
+      <c r="F4127" t="n">
+        <v>359226</v>
+      </c>
+      <c r="G4127" t="n">
+        <v>-1.501251042535446</v>
+      </c>
+    </row>
+    <row r="4128">
+      <c r="A4128" s="2" t="n">
+        <v>45390</v>
+      </c>
+      <c r="B4128" t="n">
+        <v>117800</v>
+      </c>
+      <c r="C4128" t="n">
+        <v>119300</v>
+      </c>
+      <c r="D4128" t="n">
+        <v>114200</v>
+      </c>
+      <c r="E4128" t="n">
+        <v>118800</v>
+      </c>
+      <c r="F4128" t="n">
+        <v>485400</v>
+      </c>
+      <c r="G4128" t="n">
+        <v>0.5927180355630821</v>
+      </c>
+    </row>
+    <row r="4129">
+      <c r="A4129" s="2" t="n">
+        <v>45391</v>
+      </c>
+      <c r="B4129" t="n">
+        <v>119000</v>
+      </c>
+      <c r="C4129" t="n">
+        <v>121200</v>
+      </c>
+      <c r="D4129" t="n">
+        <v>117500</v>
+      </c>
+      <c r="E4129" t="n">
+        <v>117500</v>
+      </c>
+      <c r="F4129" t="n">
+        <v>349338</v>
+      </c>
+      <c r="G4129" t="n">
+        <v>-1.094276094276094</v>
+      </c>
+    </row>
+    <row r="4130">
+      <c r="A4130" s="2" t="n">
+        <v>45393</v>
+      </c>
+      <c r="B4130" t="n">
+        <v>116300</v>
+      </c>
+      <c r="C4130" t="n">
+        <v>116900</v>
+      </c>
+      <c r="D4130" t="n">
+        <v>110500</v>
+      </c>
+      <c r="E4130" t="n">
+        <v>110600</v>
+      </c>
+      <c r="F4130" t="n">
+        <v>852391</v>
+      </c>
+      <c r="G4130" t="n">
+        <v>-5.872340425531915</v>
+      </c>
+    </row>
+    <row r="4131">
+      <c r="A4131" s="2" t="n">
+        <v>45394</v>
+      </c>
+      <c r="B4131" t="n">
+        <v>110000</v>
+      </c>
+      <c r="C4131" t="n">
+        <v>110800</v>
+      </c>
+      <c r="D4131" t="n">
+        <v>108000</v>
+      </c>
+      <c r="E4131" t="n">
+        <v>108400</v>
+      </c>
+      <c r="F4131" t="n">
+        <v>439283</v>
+      </c>
+      <c r="G4131" t="n">
+        <v>-1.989150090415913</v>
+      </c>
+    </row>
+    <row r="4132">
+      <c r="A4132" s="2" t="n">
+        <v>45397</v>
+      </c>
+      <c r="B4132" t="n">
+        <v>109000</v>
+      </c>
+      <c r="C4132" t="n">
+        <v>110000</v>
+      </c>
+      <c r="D4132" t="n">
+        <v>105200</v>
+      </c>
+      <c r="E4132" t="n">
+        <v>105300</v>
+      </c>
+      <c r="F4132" t="n">
+        <v>490834</v>
+      </c>
+      <c r="G4132" t="n">
+        <v>-2.859778597785978</v>
+      </c>
+    </row>
+    <row r="4133">
+      <c r="A4133" s="2" t="n">
+        <v>45398</v>
+      </c>
+      <c r="B4133" t="n">
+        <v>103300</v>
+      </c>
+      <c r="C4133" t="n">
+        <v>105000</v>
+      </c>
+      <c r="D4133" t="n">
+        <v>102600</v>
+      </c>
+      <c r="E4133" t="n">
+        <v>103800</v>
+      </c>
+      <c r="F4133" t="n">
+        <v>336311</v>
+      </c>
+      <c r="G4133" t="n">
+        <v>-1.424501424501424</v>
+      </c>
+    </row>
+    <row r="4134">
+      <c r="A4134" s="2" t="n">
+        <v>45399</v>
+      </c>
+      <c r="B4134" t="n">
+        <v>103600</v>
+      </c>
+      <c r="C4134" t="n">
+        <v>107700</v>
+      </c>
+      <c r="D4134" t="n">
+        <v>103600</v>
+      </c>
+      <c r="E4134" t="n">
+        <v>104800</v>
+      </c>
+      <c r="F4134" t="n">
+        <v>351798</v>
+      </c>
+      <c r="G4134" t="n">
+        <v>0.9633911368015413</v>
+      </c>
+    </row>
+    <row r="4135">
+      <c r="A4135" s="2" t="n">
+        <v>45400</v>
+      </c>
+      <c r="B4135" t="n">
+        <v>104800</v>
+      </c>
+      <c r="C4135" t="n">
+        <v>107500</v>
+      </c>
+      <c r="D4135" t="n">
+        <v>104700</v>
+      </c>
+      <c r="E4135" t="n">
+        <v>106200</v>
+      </c>
+      <c r="F4135" t="n">
+        <v>226720</v>
+      </c>
+      <c r="G4135" t="n">
+        <v>1.33587786259542</v>
+      </c>
+    </row>
+    <row r="4136">
+      <c r="A4136" s="2" t="n">
+        <v>45401</v>
+      </c>
+      <c r="B4136" t="n">
+        <v>105000</v>
+      </c>
+      <c r="C4136" t="n">
+        <v>105300</v>
+      </c>
+      <c r="D4136" t="n">
+        <v>103200</v>
+      </c>
+      <c r="E4136" t="n">
+        <v>103800</v>
+      </c>
+      <c r="F4136" t="n">
+        <v>345437</v>
+      </c>
+      <c r="G4136" t="n">
+        <v>-2.259887005649718</v>
+      </c>
+    </row>
+    <row r="4137">
+      <c r="A4137" s="2" t="n">
+        <v>45404</v>
+      </c>
+      <c r="B4137" t="n">
+        <v>104800</v>
+      </c>
+      <c r="C4137" t="n">
+        <v>110600</v>
+      </c>
+      <c r="D4137" t="n">
+        <v>104800</v>
+      </c>
+      <c r="E4137" t="n">
+        <v>110600</v>
+      </c>
+      <c r="F4137" t="n">
+        <v>440984</v>
+      </c>
+      <c r="G4137" t="n">
+        <v>6.551059730250482</v>
+      </c>
+    </row>
+    <row r="4138">
+      <c r="A4138" s="2" t="n">
+        <v>45405</v>
+      </c>
+      <c r="B4138" t="n">
+        <v>110400</v>
+      </c>
+      <c r="C4138" t="n">
+        <v>110400</v>
+      </c>
+      <c r="D4138" t="n">
+        <v>107500</v>
+      </c>
+      <c r="E4138" t="n">
+        <v>108400</v>
+      </c>
+      <c r="F4138" t="n">
+        <v>187000</v>
+      </c>
+      <c r="G4138" t="n">
+        <v>-1.989150090415913</v>
+      </c>
+    </row>
+    <row r="4139">
+      <c r="A4139" s="2" t="n">
+        <v>45406</v>
+      </c>
+      <c r="B4139" t="n">
+        <v>110700</v>
+      </c>
+      <c r="C4139" t="n">
+        <v>113200</v>
+      </c>
+      <c r="D4139" t="n">
+        <v>109200</v>
+      </c>
+      <c r="E4139" t="n">
+        <v>110000</v>
+      </c>
+      <c r="F4139" t="n">
+        <v>322770</v>
+      </c>
+      <c r="G4139" t="n">
+        <v>1.476014760147601</v>
+      </c>
+    </row>
+    <row r="4140">
+      <c r="A4140" s="2" t="n">
+        <v>45407</v>
+      </c>
+      <c r="B4140" t="n">
+        <v>109200</v>
+      </c>
+      <c r="C4140" t="n">
+        <v>109500</v>
+      </c>
+      <c r="D4140" t="n">
+        <v>107400</v>
+      </c>
+      <c r="E4140" t="n">
+        <v>107500</v>
+      </c>
+      <c r="F4140" t="n">
+        <v>207953</v>
+      </c>
+      <c r="G4140" t="n">
+        <v>-2.272727272727273</v>
+      </c>
+    </row>
+    <row r="4141">
+      <c r="A4141" s="2" t="n">
+        <v>45408</v>
+      </c>
+      <c r="B4141" t="n">
+        <v>107500</v>
+      </c>
+      <c r="C4141" t="n">
+        <v>108000</v>
+      </c>
+      <c r="D4141" t="n">
+        <v>105900</v>
+      </c>
+      <c r="E4141" t="n">
+        <v>106700</v>
+      </c>
+      <c r="F4141" t="n">
+        <v>247709</v>
+      </c>
+      <c r="G4141" t="n">
+        <v>-0.7441860465116279</v>
+      </c>
+    </row>
+    <row r="4142">
+      <c r="A4142" s="2" t="n">
+        <v>45411</v>
+      </c>
+      <c r="B4142" t="n">
+        <v>108000</v>
+      </c>
+      <c r="C4142" t="n">
+        <v>113600</v>
+      </c>
+      <c r="D4142" t="n">
+        <v>107400</v>
+      </c>
+      <c r="E4142" t="n">
+        <v>112700</v>
+      </c>
+      <c r="F4142" t="n">
+        <v>548435</v>
+      </c>
+      <c r="G4142" t="n">
+        <v>5.623242736644799</v>
+      </c>
+    </row>
+    <row r="4143">
+      <c r="A4143" s="2" t="n">
+        <v>45412</v>
+      </c>
+      <c r="B4143" t="n">
+        <v>113200</v>
+      </c>
+      <c r="C4143" t="n">
+        <v>113300</v>
+      </c>
+      <c r="D4143" t="n">
+        <v>108200</v>
+      </c>
+      <c r="E4143" t="n">
+        <v>111100</v>
+      </c>
+      <c r="F4143" t="n">
+        <v>545936</v>
+      </c>
+      <c r="G4143" t="n">
+        <v>-1.419698314108252</v>
+      </c>
+    </row>
+    <row r="4144">
+      <c r="A4144" s="2" t="n">
+        <v>45414</v>
+      </c>
+      <c r="B4144" t="n">
+        <v>109200</v>
+      </c>
+      <c r="C4144" t="n">
+        <v>111100</v>
+      </c>
+      <c r="D4144" t="n">
+        <v>108600</v>
+      </c>
+      <c r="E4144" t="n">
+        <v>109000</v>
+      </c>
+      <c r="F4144" t="n">
+        <v>223560</v>
+      </c>
+      <c r="G4144" t="n">
+        <v>-1.89018901890189</v>
+      </c>
+    </row>
+    <row r="4145">
+      <c r="A4145" s="2" t="n">
+        <v>45415</v>
+      </c>
+      <c r="B4145" t="n">
+        <v>110000</v>
+      </c>
+      <c r="C4145" t="n">
+        <v>110300</v>
+      </c>
+      <c r="D4145" t="n">
+        <v>109000</v>
+      </c>
+      <c r="E4145" t="n">
+        <v>109600</v>
+      </c>
+      <c r="F4145" t="n">
+        <v>160242</v>
+      </c>
+      <c r="G4145" t="n">
+        <v>0.5504587155963303</v>
+      </c>
+    </row>
+    <row r="4146">
+      <c r="A4146" s="2" t="n">
+        <v>45419</v>
+      </c>
+      <c r="B4146" t="n">
+        <v>110800</v>
+      </c>
+      <c r="C4146" t="n">
+        <v>112200</v>
+      </c>
+      <c r="D4146" t="n">
+        <v>110000</v>
+      </c>
+      <c r="E4146" t="n">
+        <v>112200</v>
+      </c>
+      <c r="F4146" t="n">
+        <v>254931</v>
+      </c>
+      <c r="G4146" t="n">
+        <v>2.372262773722627</v>
+      </c>
+    </row>
+    <row r="4147">
+      <c r="A4147" s="2" t="n">
+        <v>45420</v>
+      </c>
+      <c r="B4147" t="n">
+        <v>111900</v>
+      </c>
+      <c r="C4147" t="n">
+        <v>113000</v>
+      </c>
+      <c r="D4147" t="n">
+        <v>111500</v>
+      </c>
+      <c r="E4147" t="n">
+        <v>113000</v>
+      </c>
+      <c r="F4147" t="n">
+        <v>210373</v>
+      </c>
+      <c r="G4147" t="n">
+        <v>0.7130124777183601</v>
+      </c>
+    </row>
+    <row r="4148">
+      <c r="A4148" s="2" t="n">
+        <v>45421</v>
+      </c>
+      <c r="B4148" t="n">
+        <v>112900</v>
+      </c>
+      <c r="C4148" t="n">
+        <v>113700</v>
+      </c>
+      <c r="D4148" t="n">
+        <v>111300</v>
+      </c>
+      <c r="E4148" t="n">
+        <v>111400</v>
+      </c>
+      <c r="F4148" t="n">
+        <v>336743</v>
+      </c>
+      <c r="G4148" t="n">
+        <v>-1.415929203539823</v>
+      </c>
+    </row>
+    <row r="4149">
+      <c r="A4149" s="2" t="n">
+        <v>45422</v>
+      </c>
+      <c r="B4149" t="n">
+        <v>112500</v>
+      </c>
+      <c r="C4149" t="n">
+        <v>112900</v>
+      </c>
+      <c r="D4149" t="n">
+        <v>110000</v>
+      </c>
+      <c r="E4149" t="n">
+        <v>111200</v>
+      </c>
+      <c r="F4149" t="n">
+        <v>163644</v>
+      </c>
+      <c r="G4149" t="n">
+        <v>-0.1795332136445242</v>
+      </c>
+    </row>
+    <row r="4150">
+      <c r="A4150" s="2" t="n">
+        <v>45425</v>
+      </c>
+      <c r="B4150" t="n">
+        <v>111600</v>
+      </c>
+      <c r="C4150" t="n">
+        <v>111600</v>
+      </c>
+      <c r="D4150" t="n">
+        <v>109700</v>
+      </c>
+      <c r="E4150" t="n">
+        <v>110800</v>
+      </c>
+      <c r="F4150" t="n">
+        <v>160093</v>
+      </c>
+      <c r="G4150" t="n">
+        <v>-0.3597122302158274</v>
+      </c>
+    </row>
+    <row r="4151">
+      <c r="A4151" s="2" t="n">
+        <v>45426</v>
+      </c>
+      <c r="B4151" t="n">
+        <v>111000</v>
+      </c>
+      <c r="C4151" t="n">
+        <v>112500</v>
+      </c>
+      <c r="D4151" t="n">
+        <v>110100</v>
+      </c>
+      <c r="E4151" t="n">
+        <v>110400</v>
+      </c>
+      <c r="F4151" t="n">
+        <v>174816</v>
+      </c>
+      <c r="G4151" t="n">
+        <v>-0.3610108303249098</v>
+      </c>
+    </row>
+    <row r="4152">
+      <c r="A4152" s="2" t="n">
+        <v>45428</v>
+      </c>
+      <c r="B4152" t="n">
+        <v>111800</v>
+      </c>
+      <c r="C4152" t="n">
+        <v>112100</v>
+      </c>
+      <c r="D4152" t="n">
+        <v>108700</v>
+      </c>
+      <c r="E4152" t="n">
+        <v>109700</v>
+      </c>
+      <c r="F4152" t="n">
+        <v>307111</v>
+      </c>
+      <c r="G4152" t="n">
+        <v>-0.6340579710144928</v>
+      </c>
+    </row>
+    <row r="4153">
+      <c r="A4153" s="2" t="n">
+        <v>45429</v>
+      </c>
+      <c r="B4153" t="n">
+        <v>109100</v>
+      </c>
+      <c r="C4153" t="n">
+        <v>110200</v>
+      </c>
+      <c r="D4153" t="n">
+        <v>107400</v>
+      </c>
+      <c r="E4153" t="n">
+        <v>107700</v>
+      </c>
+      <c r="F4153" t="n">
+        <v>237202</v>
+      </c>
+      <c r="G4153" t="n">
+        <v>-1.823154056517776</v>
+      </c>
+    </row>
+    <row r="4154">
+      <c r="A4154" s="2" t="n">
+        <v>45432</v>
+      </c>
+      <c r="B4154" t="n">
+        <v>107800</v>
+      </c>
+      <c r="C4154" t="n">
+        <v>109600</v>
+      </c>
+      <c r="D4154" t="n">
+        <v>107400</v>
+      </c>
+      <c r="E4154" t="n">
+        <v>108100</v>
+      </c>
+      <c r="F4154" t="n">
+        <v>177298</v>
+      </c>
+      <c r="G4154" t="n">
+        <v>0.3714020427112349</v>
+      </c>
+    </row>
+    <row r="4155">
+      <c r="A4155" s="2" t="n">
+        <v>45433</v>
+      </c>
+      <c r="B4155" t="n">
+        <v>107500</v>
+      </c>
+      <c r="C4155" t="n">
+        <v>108000</v>
+      </c>
+      <c r="D4155" t="n">
+        <v>105400</v>
+      </c>
+      <c r="E4155" t="n">
+        <v>105700</v>
+      </c>
+      <c r="F4155" t="n">
+        <v>251624</v>
+      </c>
+      <c r="G4155" t="n">
+        <v>-2.220166512488436</v>
       </c>
     </row>
   </sheetData>
